--- a/2022_NBA_Player_Drafts.xlsx
+++ b/2022_NBA_Player_Drafts.xlsx
@@ -115,7 +115,7 @@
     <t>Nikola Jovic</t>
   </si>
   <si>
-    <t>Patrick Baldwin</t>
+    <t>Patrick Baldwin Jr.</t>
   </si>
   <si>
     <t>TyTy Washington Jr.</t>
